--- a/Проект/БД/экстренное заполнение.xlsx
+++ b/Проект/БД/экстренное заполнение.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Для работы\ASP.NET-Core-HRM\Проект\БД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA4342-F7F8-4FCD-91CD-D3FD63908D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074EAA1E-E1BB-430A-898A-488AFB679CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3810" windowWidth="20805" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="3810" windowWidth="20805" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -4825,7 +4825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53158C43-6CC3-4DBF-B307-310BBB4AC669}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D101"/>
     </sheetView>
   </sheetViews>
@@ -6254,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C28F2E7-9928-47B9-B791-52094837232B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,8 +8596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AE676A-0CB7-45A3-A9E2-0BE470739E64}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -9660,7 +9660,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="1">RANDBETWEEN(0,20)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -10002,7 +10002,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -10522,11 +10522,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(1,90)</f>
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10565,11 +10565,11 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="1">RANDBETWEEN(1,90)</f>
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10608,11 +10608,11 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -10737,11 +10737,11 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10780,11 +10780,11 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -10823,11 +10823,11 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10866,11 +10866,11 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10952,11 +10952,11 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -11038,11 +11038,11 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -11081,11 +11081,11 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -11124,11 +11124,11 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -11167,11 +11167,11 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -11210,11 +11210,11 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -11296,11 +11296,11 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -11339,11 +11339,11 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -11382,11 +11382,11 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -11425,11 +11425,11 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -11468,11 +11468,11 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -11511,11 +11511,11 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -11597,11 +11597,11 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -11640,11 +11640,11 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -11683,11 +11683,11 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -11726,11 +11726,11 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -11769,11 +11769,11 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -11812,11 +11812,11 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -11855,11 +11855,11 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -11898,11 +11898,11 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -12027,11 +12027,11 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -12113,11 +12113,11 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -12156,11 +12156,11 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -12285,11 +12285,11 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -12328,11 +12328,11 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -12371,11 +12371,11 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -12457,11 +12457,11 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -12500,11 +12500,11 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -12629,11 +12629,11 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -12672,11 +12672,11 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -12715,11 +12715,11 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -12801,11 +12801,11 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -12887,11 +12887,11 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -12930,11 +12930,11 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -12973,11 +12973,11 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -13016,11 +13016,11 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -13059,11 +13059,11 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -13102,11 +13102,11 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -13145,11 +13145,11 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -13188,11 +13188,11 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -13274,11 +13274,11 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -13317,11 +13317,11 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L101" ca="1" si="2">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M101" ca="1" si="3">RANDBETWEEN(1,90)</f>
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -13360,11 +13360,11 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -13403,11 +13403,11 @@
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -13446,11 +13446,11 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -13489,11 +13489,11 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -13532,11 +13532,11 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -13618,11 +13618,11 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -13661,11 +13661,11 @@
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -13790,11 +13790,11 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -13876,11 +13876,11 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -13919,11 +13919,11 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -13962,11 +13962,11 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -14005,11 +14005,11 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -14091,11 +14091,11 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -14177,11 +14177,11 @@
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -14220,11 +14220,11 @@
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -14306,11 +14306,11 @@
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -14349,11 +14349,11 @@
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -14435,11 +14435,11 @@
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -14478,11 +14478,11 @@
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -14521,11 +14521,11 @@
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -14564,11 +14564,11 @@
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -14607,11 +14607,11 @@
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -14736,11 +14736,11 @@
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -14779,11 +14779,11 @@
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -14795,8 +14795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C838599-CADB-42D3-AB7C-866E9823EFB0}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C101" sqref="A2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
